--- a/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Protokoll</t>
+  </si>
+  <si>
+    <t>generator</t>
   </si>
 </sst>
 </file>
@@ -368,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C5"/>
+  <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,7 +382,7 @@
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -387,15 +390,15 @@
         <v>42068</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -403,12 +406,40 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5">
         <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>C3+C4+C5+C6</f>
+        <v>220</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:E13" si="0">D3+D4+D5+D6</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f>C13/60</f>
+        <v>3.6666666666666665</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung.xlsx
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E14"/>
+  <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,23 +382,32 @@
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>42068</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <v>42069</v>
+      </c>
+      <c r="E2" s="1">
+        <v>42071</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -406,7 +415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -414,32 +423,54 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>225</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C13">
         <f>C3+C4+C5+C6</f>
         <v>220</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:E13" si="0">D3+D4+D5+D6</f>
-        <v>0</v>
+        <f t="shared" ref="D13:F13" si="0">D3+D4+D5+D6</f>
+        <v>240</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C14">
         <f>C13/60</f>
         <v>3.6666666666666665</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:F14" si="1">D13/60</f>
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung.xlsx
@@ -374,7 +374,7 @@
   <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +434,7 @@
         <v>225</v>
       </c>
       <c r="E6">
-        <v>60</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -448,7 +448,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>

--- a/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung.xlsx
@@ -374,7 +374,7 @@
   <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,6 +395,9 @@
       <c r="E2" s="1">
         <v>42071</v>
       </c>
+      <c r="F2" s="1">
+        <v>42072</v>
+      </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -435,6 +438,9 @@
       </c>
       <c r="E6">
         <v>360</v>
+      </c>
+      <c r="F6">
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -452,7 +458,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -470,7 +476,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung.xlsx
@@ -374,7 +374,7 @@
   <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +440,7 @@
         <v>360</v>
       </c>
       <c r="F6">
-        <v>390</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -458,7 +458,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>390</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -476,7 +476,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Aufgabe</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Datenbank &amp; User erstellen</t>
   </si>
@@ -29,6 +26,12 @@
   </si>
   <si>
     <t>generator</t>
+  </si>
+  <si>
+    <t>SQL Abfragen</t>
+  </si>
+  <si>
+    <t>Aufgabe                                       Datum</t>
   </si>
 </sst>
 </file>
@@ -371,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F14"/>
+  <dimension ref="B2:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,9 +385,9 @@
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>42068</v>
@@ -398,10 +401,43 @@
       <c r="F2" s="1">
         <v>42072</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1">
+        <v>42073</v>
+      </c>
+      <c r="H2" s="1">
+        <v>42074</v>
+      </c>
+      <c r="I2" s="1">
+        <v>42075</v>
+      </c>
+      <c r="J2" s="1">
+        <v>42076</v>
+      </c>
+      <c r="K2" s="1">
+        <v>42077</v>
+      </c>
+      <c r="L2" s="1">
+        <v>42078</v>
+      </c>
+      <c r="M2" s="1">
+        <v>42079</v>
+      </c>
+      <c r="N2" s="1">
+        <v>42080</v>
+      </c>
+      <c r="O2" s="1">
+        <v>42081</v>
+      </c>
+      <c r="P2" s="1">
+        <v>42082</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>42083</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>75</v>
@@ -410,25 +446,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>60</v>
@@ -442,14 +478,25 @@
       <c r="F6">
         <v>450</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C13">
-        <f>C3+C4+C5+C6</f>
+        <f>C3+C4+C5+C6+C7+C8+C9+C10</f>
         <v>220</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:F13" si="0">D3+D4+D5+D6</f>
+        <f t="shared" ref="D13:Q13" si="0">D3+D4+D5+D6+D7+D8+D9+D10</f>
         <v>240</v>
       </c>
       <c r="E13">
@@ -460,14 +507,62 @@
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f>C13+D13+E13+F13+G13+H13+I13+J13+K13+L13+M13+N13+O13+P13+Q13</f>
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C14">
         <f>C13/60</f>
         <v>3.6666666666666665</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:F14" si="1">D13/60</f>
+        <f t="shared" ref="D14:R14" si="1">D13/60</f>
         <v>4</v>
       </c>
       <c r="E14">
@@ -477,6 +572,54 @@
       <c r="F14">
         <f t="shared" si="1"/>
         <v>7.5</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>22.583333333333332</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung.xlsx
@@ -377,7 +377,7 @@
   <dimension ref="B2:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,6 +481,9 @@
       <c r="G6">
         <v>75</v>
       </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -488,6 +491,9 @@
       </c>
       <c r="G7">
         <v>10</v>
+      </c>
+      <c r="H7">
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
@@ -513,7 +519,7 @@
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
@@ -553,7 +559,7 @@
       </c>
       <c r="R13">
         <f>C13+D13+E13+F13+G13+H13+I13+J13+K13+L13+M13+N13+O13+P13+Q13</f>
-        <v>1355</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
@@ -579,7 +585,7 @@
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
@@ -619,7 +625,7 @@
       </c>
       <c r="R14">
         <f t="shared" si="1"/>
-        <v>22.583333333333332</v>
+        <v>25.583333333333332</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Datenbank &amp; User erstellen</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>Aufgabe                                       Datum</t>
+  </si>
+  <si>
+    <t>Generator Kommentieren</t>
+  </si>
+  <si>
+    <t>Java und JDBC</t>
+  </si>
+  <si>
+    <t>Java und JDBC Kommentieren</t>
   </si>
 </sst>
 </file>
@@ -374,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R14"/>
+  <dimension ref="B2:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,6 +454,9 @@
       <c r="D3">
         <v>15</v>
       </c>
+      <c r="O3">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -484,6 +496,9 @@
       <c r="H6">
         <v>10</v>
       </c>
+      <c r="N6">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -495,137 +510,170 @@
       <c r="H7">
         <v>170</v>
       </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <f>C3+C4+C5+C6+C7+C8+C9+C10</f>
-        <v>220</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ref="D13:Q13" si="0">D3+D4+D5+D6+D7+D8+D9+D10</f>
-        <v>240</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <f>C13+D13+E13+F13+G13+H13+I13+J13+K13+L13+M13+N13+O13+P13+Q13</f>
-        <v>1535</v>
+      <c r="J7">
+        <v>15</v>
+      </c>
+      <c r="O7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C14">
-        <f>C13/60</f>
+        <f t="shared" ref="C14:Q14" si="0">C3+C4+C5+C6+C7+C9+C10+C11</f>
+        <v>220</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f>C14+D14+E14+F14+G14+H14+I14+J14+K14+L14+M14+N14+O14+P14+Q14</f>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f>C14/60</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="D14">
-        <f t="shared" ref="D14:R14" si="1">D13/60</f>
+      <c r="D15">
+        <f t="shared" ref="D15:R15" si="1">D14/60</f>
         <v>4</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <f t="shared" si="1"/>
         <v>1.4166666666666667</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="1"/>
-        <v>25.583333333333332</v>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>28.333333333333332</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Datenbank &amp; User erstellen</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>Java und JDBC Kommentieren</t>
+  </si>
+  <si>
+    <t>Minuten</t>
+  </si>
+  <si>
+    <t>Stunden</t>
   </si>
 </sst>
 </file>
@@ -76,9 +82,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -383,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R15"/>
+  <dimension ref="B2:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,7 +401,7 @@
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -444,7 +451,7 @@
         <v>42083</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -457,24 +464,48 @@
       <c r="O3">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <f>C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3+P3+Q3</f>
+        <v>130</v>
+      </c>
+      <c r="S3" s="2">
+        <f>R3/60</f>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <f t="shared" ref="R4:R10" si="0">C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4</f>
+        <v>10</v>
+      </c>
+      <c r="S4" s="2">
+        <f t="shared" ref="S4:S10" si="1">R4/60</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="S5" s="2">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -499,8 +530,16 @@
       <c r="N6">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>1195</v>
+      </c>
+      <c r="S6" s="2">
+        <f t="shared" si="1"/>
+        <v>19.916666666666668</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -516,164 +555,208 @@
       <c r="O7">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="O8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="P8">
+        <v>200</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="1"/>
+        <v>10.333333333333334</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="O9">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="O10">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>15</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C14">
-        <f t="shared" ref="C14:Q14" si="0">C3+C4+C5+C6+C7+C9+C10+C11</f>
+        <f>C3+C4+C5+C6+C7+C8+C9+C10+C11</f>
         <v>220</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D14:Q14" si="2">D3+D4+D5+D6+D7+D8+D9+D10+D11</f>
         <v>240</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>360</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>450</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>135</v>
       </c>
       <c r="O14">
-        <f t="shared" si="0"/>
-        <v>135</v>
+        <f t="shared" si="2"/>
+        <v>435</v>
       </c>
       <c r="P14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>215</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R14">
         <f>C14+D14+E14+F14+G14+H14+I14+J14+K14+L14+M14+N14+O14+P14+Q14</f>
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C15">
+        <v>2335</v>
+      </c>
+      <c r="S14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
         <f>C14/60</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="D15">
-        <f t="shared" ref="D15:R15" si="1">D14/60</f>
+      <c r="D15" s="2">
+        <f t="shared" ref="D15:R15" si="3">D14/60</f>
         <v>4</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
+      <c r="E15" s="2">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
+      <c r="F15" s="2">
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
+      <c r="G15" s="2">
+        <f t="shared" si="3"/>
         <v>1.4166666666666667</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
+      <c r="H15" s="2">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="1"/>
+      <c r="I15" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="1"/>
+      <c r="K15" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="3"/>
         <v>2.25</v>
       </c>
-      <c r="P15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="1"/>
-        <v>28.333333333333332</v>
+      <c r="O15" s="2">
+        <f t="shared" si="3"/>
+        <v>7.25</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="3"/>
+        <v>3.5833333333333335</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <f t="shared" si="3"/>
+        <v>38.916666666666664</v>
+      </c>
+      <c r="S15" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,16 +61,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -78,16 +91,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -390,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S15"/>
+  <dimension ref="B2:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,30 +456,18 @@
         <v>42074</v>
       </c>
       <c r="I2" s="1">
-        <v>42075</v>
+        <v>42076</v>
       </c>
       <c r="J2" s="1">
-        <v>42076</v>
+        <v>42080</v>
       </c>
       <c r="K2" s="1">
-        <v>42077</v>
+        <v>42081</v>
       </c>
       <c r="L2" s="1">
-        <v>42078</v>
+        <v>42082</v>
       </c>
       <c r="M2" s="1">
-        <v>42079</v>
-      </c>
-      <c r="N2" s="1">
-        <v>42080</v>
-      </c>
-      <c r="O2" s="1">
-        <v>42081</v>
-      </c>
-      <c r="P2" s="1">
-        <v>42082</v>
-      </c>
-      <c r="Q2" s="1">
         <v>42083</v>
       </c>
     </row>
@@ -461,16 +481,16 @@
       <c r="D3">
         <v>15</v>
       </c>
-      <c r="O3">
+      <c r="K3">
         <v>40</v>
       </c>
-      <c r="R3">
-        <f>C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3+P3+Q3</f>
+      <c r="N3" s="4">
+        <f>S3/60</f>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="S3">
+        <f>C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3</f>
         <v>130</v>
-      </c>
-      <c r="S3" s="2">
-        <f>R3/60</f>
-        <v>2.1666666666666665</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
@@ -480,13 +500,13 @@
       <c r="C4">
         <v>10</v>
       </c>
-      <c r="R4">
-        <f t="shared" ref="R4:R10" si="0">C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4</f>
+      <c r="N4" s="4">
+        <f>S4/60</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S10" si="0">C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4</f>
         <v>10</v>
-      </c>
-      <c r="S4" s="2">
-        <f t="shared" ref="S4:S10" si="1">R4/60</f>
-        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
@@ -496,13 +516,13 @@
       <c r="C5">
         <v>75</v>
       </c>
-      <c r="R5">
+      <c r="N5" s="4">
+        <f>S5/60</f>
+        <v>1.25</v>
+      </c>
+      <c r="S5">
         <f t="shared" si="0"/>
         <v>75</v>
-      </c>
-      <c r="S5" s="2">
-        <f t="shared" si="1"/>
-        <v>1.25</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
@@ -527,16 +547,16 @@
       <c r="H6">
         <v>10</v>
       </c>
-      <c r="N6">
+      <c r="J6">
         <v>15</v>
       </c>
-      <c r="R6">
+      <c r="N6" s="4">
+        <f>S6/60</f>
+        <v>19.916666666666668</v>
+      </c>
+      <c r="S6">
         <f t="shared" si="0"/>
         <v>1195</v>
-      </c>
-      <c r="S6" s="2">
-        <f t="shared" si="1"/>
-        <v>19.916666666666668</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
@@ -549,213 +569,184 @@
       <c r="H7">
         <v>170</v>
       </c>
-      <c r="J7">
+      <c r="I7">
         <v>15</v>
       </c>
-      <c r="O7">
+      <c r="K7">
         <v>30</v>
       </c>
-      <c r="R7">
+      <c r="N7" s="4">
+        <f>S7/60</f>
+        <v>3.75</v>
+      </c>
+      <c r="S7">
         <f t="shared" si="0"/>
         <v>225</v>
-      </c>
-      <c r="S7" s="2">
-        <f t="shared" si="1"/>
-        <v>3.75</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="N8">
+      <c r="J8">
         <v>120</v>
       </c>
-      <c r="O8">
+      <c r="K8">
         <v>300</v>
       </c>
-      <c r="P8">
-        <v>200</v>
-      </c>
-      <c r="R8">
+      <c r="L8">
+        <v>520</v>
+      </c>
+      <c r="N8" s="4">
+        <f>S8/60</f>
+        <v>15.666666666666666</v>
+      </c>
+      <c r="S8">
         <f t="shared" si="0"/>
-        <v>620</v>
-      </c>
-      <c r="S8" s="2">
-        <f t="shared" si="1"/>
-        <v>10.333333333333334</v>
+        <v>940</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="O9">
+      <c r="K9">
         <v>40</v>
       </c>
-      <c r="R9">
+      <c r="N9" s="4">
+        <f>S9/60</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="0"/>
         <v>40</v>
-      </c>
-      <c r="S9" s="2">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="O10">
+      <c r="K10">
         <v>25</v>
       </c>
-      <c r="P10">
-        <v>15</v>
-      </c>
-      <c r="R10">
+      <c r="L10">
+        <v>20</v>
+      </c>
+      <c r="M10">
+        <v>45</v>
+      </c>
+      <c r="N10" s="4">
+        <f>S10/60</f>
+        <v>1.5</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="S10" s="2">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C12">
         <f>C3+C4+C5+C6+C7+C8+C9+C10+C11</f>
         <v>220</v>
       </c>
-      <c r="D14">
-        <f t="shared" ref="D14:Q14" si="2">D3+D4+D5+D6+D7+D8+D9+D10+D11</f>
+      <c r="D12">
+        <f>D3+D4+D5+D6+D7+D8+D9+D10+D11</f>
         <v>240</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
+      <c r="E12">
+        <f>E3+E4+E5+E6+E7+E8+E9+E10+E11</f>
         <v>360</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
+      <c r="F12">
+        <f>F3+F4+F5+F6+F7+F8+F9+F10+F11</f>
         <v>450</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
+      <c r="G12">
+        <f>G3+G4+G5+G6+G7+G8+G9+G10+G11</f>
         <v>85</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
+      <c r="H12">
+        <f>H3+H4+H5+H6+H7+H8+H9+H10+H11</f>
         <v>180</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="2"/>
+      <c r="I12">
+        <f>I3+I4+I5+I6+I7+I8+I9+I10+I11</f>
         <v>15</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="2"/>
+      <c r="J12">
+        <f>J3+J4+J5+J6+J7+J8+J9+J10+J11</f>
         <v>135</v>
       </c>
-      <c r="O14">
-        <f t="shared" si="2"/>
+      <c r="K12">
+        <f>K3+K4+K5+K6+K7+K8+K9+K10+K11</f>
         <v>435</v>
       </c>
-      <c r="P14">
-        <f t="shared" si="2"/>
-        <v>215</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <f>C14+D14+E14+F14+G14+H14+I14+J14+K14+L14+M14+N14+O14+P14+Q14</f>
-        <v>2335</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="L12">
+        <f>L3+L4+L5+L6+L7+L8+L9+L10+L11</f>
+        <v>540</v>
+      </c>
+      <c r="M12">
+        <f>M3+M4+M5+M6+M7+M8+M9+M10+M11</f>
+        <v>45</v>
+      </c>
+      <c r="N12" s="3">
+        <f>C12+D12+E12+F12+G12+H12+I12+J12+K12+L12+M12</f>
+        <v>2705</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C15" s="2">
-        <f>C14/60</f>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <f>C12/60</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" ref="D15:R15" si="3">D14/60</f>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:N13" si="1">D12/60</f>
         <v>4</v>
       </c>
-      <c r="E15" s="2">
-        <f t="shared" si="3"/>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F15" s="2">
-        <f t="shared" si="3"/>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="G15" s="2">
-        <f t="shared" si="3"/>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
         <v>1.4166666666666667</v>
       </c>
-      <c r="H15" s="2">
-        <f t="shared" si="3"/>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I15" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="3"/>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="K15" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" si="3"/>
+      <c r="J13" s="2">
+        <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
-      <c r="O15" s="2">
-        <f t="shared" si="3"/>
+      <c r="K13" s="2">
+        <f t="shared" si="1"/>
         <v>7.25</v>
       </c>
-      <c r="P15" s="2">
-        <f t="shared" si="3"/>
-        <v>3.5833333333333335</v>
-      </c>
-      <c r="Q15" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="2">
-        <f t="shared" si="3"/>
-        <v>38.916666666666664</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="L13" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="1"/>
+        <v>45.083333333333336</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung.xlsx
@@ -425,7 +425,7 @@
   <dimension ref="B2:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,13 +484,16 @@
       <c r="K3">
         <v>40</v>
       </c>
+      <c r="M3">
+        <v>120</v>
+      </c>
       <c r="N3" s="4">
-        <f>S3/60</f>
-        <v>2.1666666666666665</v>
+        <f t="shared" ref="N3:N10" si="0">S3/60</f>
+        <v>4.166666666666667</v>
       </c>
       <c r="S3">
         <f>C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3</f>
-        <v>130</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
@@ -501,11 +504,11 @@
         <v>10</v>
       </c>
       <c r="N4" s="4">
-        <f>S4/60</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S10" si="0">C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4</f>
+        <f t="shared" ref="S4:S10" si="1">C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4</f>
         <v>10</v>
       </c>
     </row>
@@ -517,11 +520,11 @@
         <v>75</v>
       </c>
       <c r="N5" s="4">
-        <f>S5/60</f>
+        <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
       <c r="S5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
@@ -551,11 +554,11 @@
         <v>15</v>
       </c>
       <c r="N6" s="4">
-        <f>S6/60</f>
+        <f t="shared" si="0"/>
         <v>19.916666666666668</v>
       </c>
       <c r="S6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1195</v>
       </c>
     </row>
@@ -576,11 +579,11 @@
         <v>30</v>
       </c>
       <c r="N7" s="4">
-        <f>S7/60</f>
+        <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
       <c r="S7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>225</v>
       </c>
     </row>
@@ -598,11 +601,11 @@
         <v>520</v>
       </c>
       <c r="N8" s="4">
-        <f>S8/60</f>
+        <f t="shared" si="0"/>
         <v>15.666666666666666</v>
       </c>
       <c r="S8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>940</v>
       </c>
     </row>
@@ -614,11 +617,11 @@
         <v>40</v>
       </c>
       <c r="N9" s="4">
-        <f>S9/60</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="S9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -636,62 +639,62 @@
         <v>45</v>
       </c>
       <c r="N10" s="4">
-        <f>S10/60</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="S10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C12">
-        <f>C3+C4+C5+C6+C7+C8+C9+C10+C11</f>
+        <f t="shared" ref="C12:M12" si="2">C3+C4+C5+C6+C7+C8+C9+C10+C11</f>
         <v>220</v>
       </c>
       <c r="D12">
-        <f>D3+D4+D5+D6+D7+D8+D9+D10+D11</f>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="E12">
-        <f>E3+E4+E5+E6+E7+E8+E9+E10+E11</f>
+        <f t="shared" si="2"/>
         <v>360</v>
       </c>
       <c r="F12">
-        <f>F3+F4+F5+F6+F7+F8+F9+F10+F11</f>
+        <f t="shared" si="2"/>
         <v>450</v>
       </c>
       <c r="G12">
-        <f>G3+G4+G5+G6+G7+G8+G9+G10+G11</f>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="H12">
-        <f>H3+H4+H5+H6+H7+H8+H9+H10+H11</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="I12">
-        <f>I3+I4+I5+I6+I7+I8+I9+I10+I11</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="J12">
-        <f>J3+J4+J5+J6+J7+J8+J9+J10+J11</f>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="K12">
-        <f>K3+K4+K5+K6+K7+K8+K9+K10+K11</f>
+        <f t="shared" si="2"/>
         <v>435</v>
       </c>
       <c r="L12">
-        <f>L3+L4+L5+L6+L7+L8+L9+L10+L11</f>
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
       <c r="M12">
-        <f>M3+M4+M5+M6+M7+M8+M9+M10+M11</f>
-        <v>45</v>
+        <f t="shared" si="2"/>
+        <v>165</v>
       </c>
       <c r="N12" s="3">
         <f>C12+D12+E12+F12+G12+H12+I12+J12+K12+L12+M12</f>
-        <v>2705</v>
+        <v>2825</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>9</v>
@@ -703,48 +706,48 @@
         <v>3.6666666666666665</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ref="D13:N13" si="1">D12/60</f>
+        <f t="shared" ref="D13:N13" si="3">D12/60</f>
         <v>4</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.4166666666666667</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.25</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.25</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
+        <f t="shared" si="3"/>
+        <v>2.75</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" si="1"/>
-        <v>45.083333333333336</v>
+        <f t="shared" si="3"/>
+        <v>47.083333333333336</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>10</v>
@@ -752,5 +755,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>